--- a/database/industries/zeraat/zegoldasht/income/yearly/rial.xlsx
+++ b/database/industries/zeraat/zegoldasht/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191B3A5-9EEB-48A8-99B2-12834880B552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE8ED0-0D0A-4D74-850E-A94467BE8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -622,14 +622,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,7 +638,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -669,7 +669,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +700,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -751,7 +751,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -772,7 +772,7 @@
         <v>3123661</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -793,7 +793,7 @@
         <v>107297</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3240025</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -835,7 +835,7 @@
         <v>-3198990</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
@@ -856,7 +856,7 @@
         <v>3271993</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -877,7 +877,7 @@
         <v>-2625935</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
@@ -898,7 +898,7 @@
         <v>-184457</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
@@ -919,7 +919,7 @@
         <v>25482</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -940,7 +940,7 @@
         <v>-37305</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -961,7 +961,7 @@
         <v>449778</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -982,7 +982,7 @@
         <v>108091</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>-12371</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>552359</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>-740</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>551619</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>36</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>551619</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>

--- a/database/industries/zeraat/zegoldasht/income/yearly/rial.xlsx
+++ b/database/industries/zeraat/zegoldasht/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE8ED0-0D0A-4D74-850E-A94467BE8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A89FDB-A00F-4EF7-BFED-78C79B76C016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-13 (16)</t>
-  </si>
-  <si>
     <t>1399-02-22 (12)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-26 (9)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-29 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>ارزش منصفانه تولیدات کشاورزی</t>
@@ -622,14 +622,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,7 +638,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -669,7 +669,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +700,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -751,7 +751,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -762,17 +762,17 @@
       <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
+      <c r="F11" s="13">
+        <v>1794029</v>
       </c>
       <c r="G11" s="13">
-        <v>1794029</v>
+        <v>3123661</v>
       </c>
       <c r="H11" s="13">
-        <v>3123661</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6662826</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -783,17 +783,17 @@
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>17</v>
+      <c r="F12" s="11">
+        <v>92184</v>
       </c>
       <c r="G12" s="11">
-        <v>92184</v>
+        <v>107297</v>
       </c>
       <c r="H12" s="11">
-        <v>107297</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>186247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
@@ -804,17 +804,17 @@
       <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>17</v>
+      <c r="F13" s="13">
+        <v>1894273</v>
       </c>
       <c r="G13" s="13">
-        <v>1894273</v>
+        <v>3240025</v>
       </c>
       <c r="H13" s="13">
-        <v>3240025</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6624368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -825,38 +825,38 @@
       <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>17</v>
+      <c r="F14" s="11">
+        <v>-1871825</v>
       </c>
       <c r="G14" s="11">
-        <v>-1871825</v>
+        <v>-3198990</v>
       </c>
       <c r="H14" s="11">
-        <v>-3198990</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-6597688</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
-        <v>555725</v>
+        <v>806540</v>
       </c>
       <c r="E15" s="15">
-        <v>806540</v>
+        <v>1182073</v>
       </c>
       <c r="F15" s="15">
-        <v>1182073</v>
+        <v>1908661</v>
       </c>
       <c r="G15" s="15">
-        <v>1908661</v>
+        <v>3271993</v>
       </c>
       <c r="H15" s="15">
-        <v>3271993</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6875753</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -867,101 +867,101 @@
       <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>17</v>
+      <c r="F16" s="11">
+        <v>-1446944</v>
       </c>
       <c r="G16" s="11">
-        <v>-1446944</v>
+        <v>-2625935</v>
       </c>
       <c r="H16" s="11">
-        <v>-2625935</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-5909215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>-38290</v>
+        <v>-48182</v>
       </c>
       <c r="E17" s="13">
-        <v>-48182</v>
+        <v>-62464</v>
       </c>
       <c r="F17" s="13">
-        <v>-62464</v>
+        <v>-93357</v>
       </c>
       <c r="G17" s="13">
-        <v>-93357</v>
+        <v>-184457</v>
       </c>
       <c r="H17" s="13">
-        <v>-184457</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-341706</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>2774</v>
+        <v>9189</v>
       </c>
       <c r="E18" s="11">
-        <v>9189</v>
+        <v>10240</v>
       </c>
       <c r="F18" s="11">
-        <v>10240</v>
+        <v>20458</v>
       </c>
       <c r="G18" s="11">
-        <v>20458</v>
+        <v>25482</v>
       </c>
       <c r="H18" s="11">
-        <v>25482</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-5418</v>
+        <v>-8336</v>
       </c>
       <c r="E19" s="13">
-        <v>-8336</v>
+        <v>-26627</v>
       </c>
       <c r="F19" s="13">
-        <v>-26627</v>
+        <v>-29017</v>
       </c>
       <c r="G19" s="13">
-        <v>-29017</v>
+        <v>-37305</v>
       </c>
       <c r="H19" s="13">
-        <v>-37305</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-55766</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>97042</v>
+        <v>205007</v>
       </c>
       <c r="E20" s="17">
-        <v>205007</v>
+        <v>292857</v>
       </c>
       <c r="F20" s="17">
-        <v>292857</v>
+        <v>359801</v>
       </c>
       <c r="G20" s="17">
-        <v>359801</v>
+        <v>449778</v>
       </c>
       <c r="H20" s="17">
-        <v>449778</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>590526</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -972,38 +972,38 @@
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>17</v>
+      <c r="F21" s="13">
+        <v>55182</v>
       </c>
       <c r="G21" s="13">
-        <v>55182</v>
+        <v>108091</v>
       </c>
       <c r="H21" s="13">
-        <v>108091</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>177755</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
-        <v>2326</v>
+        <v>1742</v>
       </c>
       <c r="E22" s="11">
-        <v>1742</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11">
-        <v>108</v>
+        <v>1375</v>
       </c>
       <c r="G22" s="11">
-        <v>1375</v>
+        <v>1897</v>
       </c>
       <c r="H22" s="11">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -1017,119 +1017,119 @@
       <c r="F23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="13">
+        <v>4964</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-6140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
-        <v>-15353</v>
+        <v>-12488</v>
       </c>
       <c r="E24" s="11">
-        <v>-12488</v>
+        <v>-159</v>
       </c>
       <c r="F24" s="11">
-        <v>-159</v>
+        <v>0</v>
       </c>
       <c r="G24" s="11">
-        <v>0</v>
+        <v>-12371</v>
       </c>
       <c r="H24" s="11">
-        <v>-12371</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-92835</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
-        <v>95371</v>
+        <v>254812</v>
       </c>
       <c r="E25" s="15">
-        <v>254812</v>
+        <v>333302</v>
       </c>
       <c r="F25" s="15">
-        <v>333302</v>
+        <v>417768</v>
       </c>
       <c r="G25" s="15">
-        <v>417768</v>
+        <v>552359</v>
       </c>
       <c r="H25" s="15">
-        <v>552359</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>673130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>17</v>
+      <c r="D26" s="11">
+        <v>-121</v>
       </c>
       <c r="E26" s="11">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>-317</v>
       </c>
       <c r="G26" s="11">
-        <v>-317</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-646</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>17</v>
+      <c r="D27" s="13">
+        <v>0</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>-216</v>
       </c>
       <c r="F27" s="13">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="H27" s="13">
-        <v>-740</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1698</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
-        <v>95371</v>
+        <v>254691</v>
       </c>
       <c r="E28" s="17">
-        <v>254691</v>
+        <v>333086</v>
       </c>
       <c r="F28" s="17">
-        <v>333086</v>
+        <v>417451</v>
       </c>
       <c r="G28" s="17">
-        <v>417451</v>
+        <v>551619</v>
       </c>
       <c r="H28" s="17">
-        <v>551619</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>670786</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
@@ -1150,28 +1150,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
-        <v>95371</v>
+        <v>254691</v>
       </c>
       <c r="E30" s="17">
-        <v>254691</v>
+        <v>333086</v>
       </c>
       <c r="F30" s="17">
-        <v>333086</v>
+        <v>417451</v>
       </c>
       <c r="G30" s="17">
-        <v>417451</v>
+        <v>551619</v>
       </c>
       <c r="H30" s="17">
-        <v>551619</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>670786</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>17</v>
+      <c r="D33" s="15">
+        <v>0</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1255,28 +1255,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>477</v>
+        <v>1273</v>
       </c>
       <c r="E35" s="15">
-        <v>1273</v>
+        <v>1665</v>
       </c>
       <c r="F35" s="15">
-        <v>1665</v>
+        <v>2087</v>
       </c>
       <c r="G35" s="15">
-        <v>2087</v>
+        <v>788</v>
       </c>
       <c r="H35" s="15">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1291,34 +1291,34 @@
         <v>200000</v>
       </c>
       <c r="G36" s="11">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="H36" s="11">
         <v>700000</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="E37" s="15">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="F37" s="15">
-        <v>476</v>
+        <v>596</v>
       </c>
       <c r="G37" s="15">
-        <v>596</v>
+        <v>788</v>
       </c>
       <c r="H37" s="15">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
